--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dll1-Notch3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dll1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,10 +91,13 @@
     <t>Notch3</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.344053795335331</v>
+        <v>10.739123</v>
       </c>
       <c r="H2">
-        <v>8.344053795335331</v>
+        <v>32.21736900000001</v>
       </c>
       <c r="I2">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="J2">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.87051672530531</v>
+        <v>2.987818</v>
       </c>
       <c r="N2">
-        <v>2.87051672530531</v>
+        <v>8.963454</v>
       </c>
       <c r="O2">
-        <v>0.03802013550685467</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="P2">
-        <v>0.03802013550685467</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="Q2">
-        <v>23.95174597635732</v>
+        <v>32.08654500361401</v>
       </c>
       <c r="R2">
-        <v>23.95174597635732</v>
+        <v>288.778905032526</v>
       </c>
       <c r="S2">
-        <v>0.02075639016787342</v>
+        <v>0.02118352838508327</v>
       </c>
       <c r="T2">
-        <v>0.02075639016787342</v>
+        <v>0.02118352838508327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.344053795335331</v>
+        <v>10.739123</v>
       </c>
       <c r="H3">
-        <v>8.344053795335331</v>
+        <v>32.21736900000001</v>
       </c>
       <c r="I3">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="J3">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.59304174837258</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N3">
-        <v>4.59304174837258</v>
+        <v>14.22398</v>
       </c>
       <c r="O3">
-        <v>0.06083506433608837</v>
+        <v>0.05825042696427194</v>
       </c>
       <c r="P3">
-        <v>0.06083506433608837</v>
+        <v>0.05825042696427195</v>
       </c>
       <c r="Q3">
-        <v>38.32458743264185</v>
+        <v>50.91769025651334</v>
       </c>
       <c r="R3">
-        <v>38.32458743264185</v>
+        <v>458.2592123086201</v>
       </c>
       <c r="S3">
-        <v>0.03321177882229998</v>
+        <v>0.03361584541839079</v>
       </c>
       <c r="T3">
-        <v>0.03321177882229998</v>
+        <v>0.0336158454183908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.344053795335331</v>
+        <v>10.739123</v>
       </c>
       <c r="H4">
-        <v>8.344053795335331</v>
+        <v>32.21736900000001</v>
       </c>
       <c r="I4">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="J4">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.211709112138957</v>
+        <v>0.1099783333333333</v>
       </c>
       <c r="N4">
-        <v>0.211709112138957</v>
+        <v>0.329935</v>
       </c>
       <c r="O4">
-        <v>0.002804097624863314</v>
+        <v>0.001351158720727747</v>
       </c>
       <c r="P4">
-        <v>0.002804097624863314</v>
+        <v>0.001351158720727747</v>
       </c>
       <c r="Q4">
-        <v>1.766512220650137</v>
+        <v>1.181070849001667</v>
       </c>
       <c r="R4">
-        <v>1.766512220650137</v>
+        <v>10.629637641015</v>
       </c>
       <c r="S4">
-        <v>0.001530845263820184</v>
+        <v>0.0007797426569860733</v>
       </c>
       <c r="T4">
-        <v>0.001530845263820184</v>
+        <v>0.0007797426569860733</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.344053795335331</v>
+        <v>10.739123</v>
       </c>
       <c r="H5">
-        <v>8.344053795335331</v>
+        <v>32.21736900000001</v>
       </c>
       <c r="I5">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="J5">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>67.8246402140326</v>
+        <v>0.2117236666666667</v>
       </c>
       <c r="N5">
-        <v>67.8246402140326</v>
+        <v>0.635171</v>
       </c>
       <c r="O5">
-        <v>0.8983407025321938</v>
+        <v>0.002601169429746356</v>
       </c>
       <c r="P5">
-        <v>0.8983407025321938</v>
+        <v>0.002601169429746356</v>
       </c>
       <c r="Q5">
-        <v>565.932446595152</v>
+        <v>2.273726498344334</v>
       </c>
       <c r="R5">
-        <v>565.932446595152</v>
+        <v>20.463538485099</v>
       </c>
       <c r="S5">
-        <v>0.4904325004859064</v>
+        <v>0.001501113622927247</v>
       </c>
       <c r="T5">
-        <v>0.4904325004859064</v>
+        <v>0.001501113622927247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.94001310692203</v>
+        <v>10.739123</v>
       </c>
       <c r="H6">
-        <v>6.94001310692203</v>
+        <v>32.21736900000001</v>
       </c>
       <c r="I6">
-        <v>0.4540684852601001</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="J6">
-        <v>0.4540684852601001</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.87051672530531</v>
+        <v>0.357675</v>
       </c>
       <c r="N6">
-        <v>2.87051672530531</v>
+        <v>1.073025</v>
       </c>
       <c r="O6">
-        <v>0.03802013550685467</v>
+        <v>0.004394280953245006</v>
       </c>
       <c r="P6">
-        <v>0.03802013550685467</v>
+        <v>0.004394280953245007</v>
       </c>
       <c r="Q6">
-        <v>19.92142369725775</v>
+        <v>3.841115819025001</v>
       </c>
       <c r="R6">
-        <v>19.92142369725775</v>
+        <v>34.57004237122501</v>
       </c>
       <c r="S6">
-        <v>0.01726374533898125</v>
+        <v>0.002535903631056061</v>
       </c>
       <c r="T6">
-        <v>0.01726374533898125</v>
+        <v>0.002535903631056061</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.94001310692203</v>
+        <v>10.739123</v>
       </c>
       <c r="H7">
-        <v>6.94001310692203</v>
+        <v>32.21736900000001</v>
       </c>
       <c r="I7">
-        <v>0.4540684852601001</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="J7">
-        <v>0.4540684852601001</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.59304174837258</v>
+        <v>72.98704766666667</v>
       </c>
       <c r="N7">
-        <v>4.59304174837258</v>
+        <v>218.961143</v>
       </c>
       <c r="O7">
-        <v>0.06083506433608837</v>
+        <v>0.8966955850848359</v>
       </c>
       <c r="P7">
-        <v>0.06083506433608837</v>
+        <v>0.8966955850848359</v>
       </c>
       <c r="Q7">
-        <v>31.87576993434578</v>
+        <v>783.8168822991964</v>
       </c>
       <c r="R7">
-        <v>31.87576993434578</v>
+        <v>7054.351940692768</v>
       </c>
       <c r="S7">
-        <v>0.02762328551378838</v>
+        <v>0.5174756949687894</v>
       </c>
       <c r="T7">
-        <v>0.02762328551378838</v>
+        <v>0.5174756949687894</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>6.94001310692203</v>
+        <v>0.09132666666666667</v>
       </c>
       <c r="H8">
-        <v>6.94001310692203</v>
+        <v>0.27398</v>
       </c>
       <c r="I8">
-        <v>0.4540684852601001</v>
+        <v>0.004907651497632602</v>
       </c>
       <c r="J8">
-        <v>0.4540684852601001</v>
+        <v>0.004907651497632602</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.211709112138957</v>
+        <v>2.987818</v>
       </c>
       <c r="N8">
-        <v>0.211709112138957</v>
+        <v>8.963454</v>
       </c>
       <c r="O8">
-        <v>0.002804097624863314</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="P8">
-        <v>0.002804097624863314</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="Q8">
-        <v>1.469264013099187</v>
+        <v>0.2728674585466667</v>
       </c>
       <c r="R8">
-        <v>1.469264013099187</v>
+        <v>2.45580712692</v>
       </c>
       <c r="S8">
-        <v>0.001273252361043129</v>
+        <v>0.0001801470227734957</v>
       </c>
       <c r="T8">
-        <v>0.001273252361043129</v>
+        <v>0.0001801470227734957</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -968,49 +974,669 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>6.94001310692203</v>
+        <v>0.09132666666666667</v>
       </c>
       <c r="H9">
-        <v>6.94001310692203</v>
+        <v>0.27398</v>
       </c>
       <c r="I9">
-        <v>0.4540684852601001</v>
+        <v>0.004907651497632602</v>
       </c>
       <c r="J9">
-        <v>0.4540684852601001</v>
+        <v>0.004907651497632602</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.8246402140326</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N9">
-        <v>67.8246402140326</v>
+        <v>14.22398</v>
       </c>
       <c r="O9">
-        <v>0.8983407025321938</v>
+        <v>0.05825042696427194</v>
       </c>
       <c r="P9">
-        <v>0.8983407025321938</v>
+        <v>0.05825042696427195</v>
       </c>
       <c r="Q9">
-        <v>470.7038920576572</v>
+        <v>0.4330095600444445</v>
       </c>
       <c r="R9">
-        <v>470.7038920576572</v>
+        <v>3.8970860404</v>
       </c>
       <c r="S9">
-        <v>0.4079082020462874</v>
+        <v>0.0002858727951289477</v>
       </c>
       <c r="T9">
-        <v>0.4079082020462874</v>
+        <v>0.0002858727951289477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.09132666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.27398</v>
+      </c>
+      <c r="I10">
+        <v>0.004907651497632602</v>
+      </c>
+      <c r="J10">
+        <v>0.004907651497632602</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1099783333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.329935</v>
+      </c>
+      <c r="O10">
+        <v>0.001351158720727747</v>
+      </c>
+      <c r="P10">
+        <v>0.001351158720727747</v>
+      </c>
+      <c r="Q10">
+        <v>0.01004395458888889</v>
+      </c>
+      <c r="R10">
+        <v>0.09039559129999999</v>
+      </c>
+      <c r="S10">
+        <v>6.631016119318879E-06</v>
+      </c>
+      <c r="T10">
+        <v>6.631016119318879E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.09132666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.27398</v>
+      </c>
+      <c r="I11">
+        <v>0.004907651497632602</v>
+      </c>
+      <c r="J11">
+        <v>0.004907651497632602</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2117236666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.635171</v>
+      </c>
+      <c r="O11">
+        <v>0.002601169429746356</v>
+      </c>
+      <c r="P11">
+        <v>0.002601169429746356</v>
+      </c>
+      <c r="Q11">
+        <v>0.01933601673111111</v>
+      </c>
+      <c r="R11">
+        <v>0.17402415058</v>
+      </c>
+      <c r="S11">
+        <v>1.276563304749084E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.276563304749084E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.09132666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.27398</v>
+      </c>
+      <c r="I12">
+        <v>0.004907651497632602</v>
+      </c>
+      <c r="J12">
+        <v>0.004907651497632602</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.357675</v>
+      </c>
+      <c r="N12">
+        <v>1.073025</v>
+      </c>
+      <c r="O12">
+        <v>0.004394280953245006</v>
+      </c>
+      <c r="P12">
+        <v>0.004394280953245007</v>
+      </c>
+      <c r="Q12">
+        <v>0.0326652655</v>
+      </c>
+      <c r="R12">
+        <v>0.2939873895</v>
+      </c>
+      <c r="S12">
+        <v>2.156559950121127E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.156559950121128E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.09132666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.27398</v>
+      </c>
+      <c r="I13">
+        <v>0.004907651497632602</v>
+      </c>
+      <c r="J13">
+        <v>0.004907651497632602</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>72.98704766666667</v>
+      </c>
+      <c r="N13">
+        <v>218.961143</v>
+      </c>
+      <c r="O13">
+        <v>0.8966955850848359</v>
+      </c>
+      <c r="P13">
+        <v>0.8966955850848359</v>
+      </c>
+      <c r="Q13">
+        <v>6.665663773237778</v>
+      </c>
+      <c r="R13">
+        <v>59.99097395914</v>
+      </c>
+      <c r="S13">
+        <v>0.004400669431062137</v>
+      </c>
+      <c r="T13">
+        <v>0.004400669431062137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.778586999999999</v>
+      </c>
+      <c r="H14">
+        <v>23.335761</v>
+      </c>
+      <c r="I14">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="J14">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.987818</v>
+      </c>
+      <c r="N14">
+        <v>8.963454</v>
+      </c>
+      <c r="O14">
+        <v>0.03670737884717296</v>
+      </c>
+      <c r="P14">
+        <v>0.03670737884717296</v>
+      </c>
+      <c r="Q14">
+        <v>23.241002253166</v>
+      </c>
+      <c r="R14">
+        <v>209.169020278494</v>
+      </c>
+      <c r="S14">
+        <v>0.0153437034393162</v>
+      </c>
+      <c r="T14">
+        <v>0.0153437034393162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.778586999999999</v>
+      </c>
+      <c r="H15">
+        <v>23.335761</v>
+      </c>
+      <c r="I15">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="J15">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.741326666666667</v>
+      </c>
+      <c r="N15">
+        <v>14.22398</v>
+      </c>
+      <c r="O15">
+        <v>0.05825042696427194</v>
+      </c>
+      <c r="P15">
+        <v>0.05825042696427195</v>
+      </c>
+      <c r="Q15">
+        <v>36.88082197208666</v>
+      </c>
+      <c r="R15">
+        <v>331.92739774878</v>
+      </c>
+      <c r="S15">
+        <v>0.02434870875075219</v>
+      </c>
+      <c r="T15">
+        <v>0.0243487087507522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.778586999999999</v>
+      </c>
+      <c r="H16">
+        <v>23.335761</v>
+      </c>
+      <c r="I16">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="J16">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1099783333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.329935</v>
+      </c>
+      <c r="O16">
+        <v>0.001351158720727747</v>
+      </c>
+      <c r="P16">
+        <v>0.001351158720727747</v>
+      </c>
+      <c r="Q16">
+        <v>0.8554760339483332</v>
+      </c>
+      <c r="R16">
+        <v>7.699284305534999</v>
+      </c>
+      <c r="S16">
+        <v>0.000564785047622355</v>
+      </c>
+      <c r="T16">
+        <v>0.000564785047622355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.778586999999999</v>
+      </c>
+      <c r="H17">
+        <v>23.335761</v>
+      </c>
+      <c r="I17">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="J17">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2117236666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.635171</v>
+      </c>
+      <c r="O17">
+        <v>0.002601169429746356</v>
+      </c>
+      <c r="P17">
+        <v>0.002601169429746356</v>
+      </c>
+      <c r="Q17">
+        <v>1.646910961125666</v>
+      </c>
+      <c r="R17">
+        <v>14.822198650131</v>
+      </c>
+      <c r="S17">
+        <v>0.001087290173771618</v>
+      </c>
+      <c r="T17">
+        <v>0.001087290173771618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.778586999999999</v>
+      </c>
+      <c r="H18">
+        <v>23.335761</v>
+      </c>
+      <c r="I18">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="J18">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.357675</v>
+      </c>
+      <c r="N18">
+        <v>1.073025</v>
+      </c>
+      <c r="O18">
+        <v>0.004394280953245006</v>
+      </c>
+      <c r="P18">
+        <v>0.004394280953245007</v>
+      </c>
+      <c r="Q18">
+        <v>2.782206105225</v>
+      </c>
+      <c r="R18">
+        <v>25.039854947025</v>
+      </c>
+      <c r="S18">
+        <v>0.001836811722687734</v>
+      </c>
+      <c r="T18">
+        <v>0.001836811722687734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.778586999999999</v>
+      </c>
+      <c r="H19">
+        <v>23.335761</v>
+      </c>
+      <c r="I19">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="J19">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>72.98704766666667</v>
+      </c>
+      <c r="N19">
+        <v>218.961143</v>
+      </c>
+      <c r="O19">
+        <v>0.8966955850848359</v>
+      </c>
+      <c r="P19">
+        <v>0.8966955850848359</v>
+      </c>
+      <c r="Q19">
+        <v>567.7361001483137</v>
+      </c>
+      <c r="R19">
+        <v>5109.624901334822</v>
+      </c>
+      <c r="S19">
+        <v>0.3748192206849842</v>
+      </c>
+      <c r="T19">
+        <v>0.3748192206849842</v>
       </c>
     </row>
   </sheetData>
